--- a/Design/Excel/Game/Datas/__tables__.xlsx
+++ b/Design/Excel/Game/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12615"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>c,e,s</t>
   </si>
 </sst>
 </file>
@@ -1160,10 +1163,10 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="29.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1388,7 +1391,7 @@
         <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
